--- a/CSUSHPINSA.xlsx
+++ b/CSUSHPINSA.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samar\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C7321B9-DB39-4EFB-BBB5-D3D40951674C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="105" windowWidth="27975" windowHeight="12285"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CSUSHPINSA" sheetId="1" r:id="rId1"/>
@@ -25,8 +31,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="18">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -509,56 +515,64 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - 强调文字颜色 1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="好" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="差" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="强调文字颜色 1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="标题" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="标题 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="标题 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="标题 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="标题 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="检查单元格" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="汇总" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="注释" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="解释性文本" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="警告文本" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="计算" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="输入" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="输出" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="适中" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="链接单元格" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -600,7 +614,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -632,9 +646,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -666,6 +698,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -841,14 +891,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B391"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="14.453125" customWidth="1"/>
+    <col min="2" max="2" width="13.90625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -856,7 +910,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>31778</v>
       </c>
@@ -864,7 +918,7 @@
         <v>63.753999999999998</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>31809</v>
       </c>
@@ -872,7 +926,7 @@
         <v>64.153999999999996</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>31837</v>
       </c>
@@ -880,7 +934,7 @@
         <v>64.489999999999995</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>31868</v>
       </c>
@@ -888,7 +942,7 @@
         <v>64.995000000000005</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>31898</v>
       </c>
@@ -896,7 +950,7 @@
         <v>65.569999999999993</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>31929</v>
       </c>
@@ -904,7 +958,7 @@
         <v>66.238</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>31959</v>
       </c>
@@ -912,7 +966,7 @@
         <v>66.801999999999893</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>31990</v>
       </c>
@@ -920,7 +974,7 @@
         <v>67.281999999999996</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>32021</v>
       </c>
@@ -928,7 +982,7 @@
         <v>67.637</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>32051</v>
       </c>
@@ -936,7 +990,7 @@
         <v>67.915999999999997</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>32082</v>
       </c>
@@ -944,7 +998,7 @@
         <v>68.106999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>32112</v>
       </c>
@@ -952,7 +1006,7 @@
         <v>68.358000000000004</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>32143</v>
       </c>
@@ -960,7 +1014,7 @@
         <v>68.596000000000004</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>32174</v>
       </c>
@@ -968,7 +1022,7 @@
         <v>68.929000000000002</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>32203</v>
       </c>
@@ -976,7 +1030,7 @@
         <v>69.335999999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>32234</v>
       </c>
@@ -984,7 +1038,7 @@
         <v>69.798999999999893</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>32264</v>
       </c>
@@ -992,7 +1046,7 @@
         <v>70.418000000000006</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>32295</v>
       </c>
@@ -1000,7 +1054,7 @@
         <v>71.076999999999998</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>32325</v>
       </c>
@@ -1008,7 +1062,7 @@
         <v>71.694000000000003</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>32356</v>
       </c>
@@ -1016,7 +1070,7 @@
         <v>72.194000000000003</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>32387</v>
       </c>
@@ -1024,7 +1078,7 @@
         <v>72.582999999999998</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>32417</v>
       </c>
@@ -1032,7 +1086,7 @@
         <v>72.831999999999994</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>32448</v>
       </c>
@@ -1040,7 +1094,7 @@
         <v>73.075000000000003</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>32478</v>
       </c>
@@ -1048,7 +1102,7 @@
         <v>73.287999999999997</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>32509</v>
       </c>
@@ -1056,7 +1110,7 @@
         <v>73.623999999999995</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>32540</v>
       </c>
@@ -1064,7 +1118,7 @@
         <v>73.973999999999904</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>32568</v>
       </c>
@@ -1072,7 +1126,7 @@
         <v>74.415999999999997</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>32599</v>
       </c>
@@ -1080,7 +1134,7 @@
         <v>74.873999999999995</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>32629</v>
       </c>
@@ -1088,7 +1142,7 @@
         <v>75.302999999999997</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>32660</v>
       </c>
@@ -1096,7 +1150,7 @@
         <v>75.703000000000003</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>32690</v>
       </c>
@@ -1104,7 +1158,7 @@
         <v>76.048999999999893</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>32721</v>
       </c>
@@ -1112,7 +1166,7 @@
         <v>76.278999999999996</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>32752</v>
       </c>
@@ -1120,7 +1174,7 @@
         <v>76.426999999999893</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>32782</v>
       </c>
@@ -1128,7 +1182,7 @@
         <v>76.492999999999995</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>32813</v>
       </c>
@@ -1136,7 +1190,7 @@
         <v>76.524000000000001</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>32843</v>
       </c>
@@ -1144,7 +1198,7 @@
         <v>76.498999999999995</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>32874</v>
       </c>
@@ -1152,7 +1206,7 @@
         <v>76.527000000000001</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>32905</v>
       </c>
@@ -1160,7 +1214,7 @@
         <v>76.587000000000003</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>32933</v>
       </c>
@@ -1168,7 +1222,7 @@
         <v>76.790000000000006</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>32964</v>
       </c>
@@ -1176,7 +1230,7 @@
         <v>77.040999999999997</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>32994</v>
       </c>
@@ -1184,7 +1238,7 @@
         <v>77.298999999999893</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>33025</v>
       </c>
@@ -1192,7 +1246,7 @@
         <v>77.503999999999905</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>33055</v>
       </c>
@@ -1200,7 +1254,7 @@
         <v>77.555999999999997</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>33086</v>
       </c>
@@ -1208,7 +1262,7 @@
         <v>77.472999999999999</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <v>33117</v>
       </c>
@@ -1216,7 +1270,7 @@
         <v>77.221999999999994</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <v>33147</v>
       </c>
@@ -1224,7 +1278,7 @@
         <v>76.906000000000006</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
         <v>33178</v>
       </c>
@@ -1232,7 +1286,7 @@
         <v>76.373999999999995</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <v>33208</v>
       </c>
@@ -1240,7 +1294,7 @@
         <v>75.965000000000003</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <v>33239</v>
       </c>
@@ -1248,7 +1302,7 @@
         <v>75.527000000000001</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <v>33270</v>
       </c>
@@ -1256,7 +1310,7 @@
         <v>75.247</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <v>33298</v>
       </c>
@@ -1264,7 +1318,7 @@
         <v>75.138999999999996</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
         <v>33329</v>
       </c>
@@ -1272,7 +1326,7 @@
         <v>75.311999999999998</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
         <v>33359</v>
       </c>
@@ -1280,7 +1334,7 @@
         <v>75.768000000000001</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
         <v>33390</v>
       </c>
@@ -1288,7 +1342,7 @@
         <v>76.251000000000005</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
         <v>33420</v>
       </c>
@@ -1296,7 +1350,7 @@
         <v>76.507999999999996</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
         <v>33451</v>
       </c>
@@ -1304,7 +1358,7 @@
         <v>76.585999999999999</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
         <v>33482</v>
       </c>
@@ -1312,7 +1366,7 @@
         <v>76.569000000000003</v>
       </c>
     </row>
-    <row r="59" spans="1:2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
         <v>33512</v>
       </c>
@@ -1320,7 +1374,7 @@
         <v>76.283999999999907</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
         <v>33543</v>
       </c>
@@ -1328,7 +1382,7 @@
         <v>76.031999999999996</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
         <v>33573</v>
       </c>
@@ -1336,7 +1390,7 @@
         <v>75.831999999999994</v>
       </c>
     </row>
-    <row r="62" spans="1:2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
         <v>33604</v>
       </c>
@@ -1344,7 +1398,7 @@
         <v>75.694999999999993</v>
       </c>
     </row>
-    <row r="63" spans="1:2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
         <v>33635</v>
       </c>
@@ -1352,7 +1406,7 @@
         <v>75.650000000000006</v>
       </c>
     </row>
-    <row r="64" spans="1:2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
         <v>33664</v>
       </c>
@@ -1360,7 +1414,7 @@
         <v>75.81</v>
       </c>
     </row>
-    <row r="65" spans="1:2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
         <v>33695</v>
       </c>
@@ -1368,7 +1422,7 @@
         <v>76.076999999999998</v>
       </c>
     </row>
-    <row r="66" spans="1:2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
         <v>33725</v>
       </c>
@@ -1376,7 +1430,7 @@
         <v>76.394999999999996</v>
       </c>
     </row>
-    <row r="67" spans="1:2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
         <v>33756</v>
       </c>
@@ -1384,7 +1438,7 @@
         <v>76.599999999999994</v>
       </c>
     </row>
-    <row r="68" spans="1:2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
         <v>33786</v>
       </c>
@@ -1392,7 +1446,7 @@
         <v>76.709999999999994</v>
       </c>
     </row>
-    <row r="69" spans="1:2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
         <v>33817</v>
       </c>
@@ -1400,7 +1454,7 @@
         <v>76.730999999999995</v>
       </c>
     </row>
-    <row r="70" spans="1:2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
         <v>33848</v>
       </c>
@@ -1408,7 +1462,7 @@
         <v>76.628</v>
       </c>
     </row>
-    <row r="71" spans="1:2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
         <v>33878</v>
       </c>
@@ -1416,7 +1470,7 @@
         <v>76.598999999999904</v>
       </c>
     </row>
-    <row r="72" spans="1:2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
         <v>33909</v>
       </c>
@@ -1424,7 +1478,7 @@
         <v>76.581000000000003</v>
       </c>
     </row>
-    <row r="73" spans="1:2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A73" s="1">
         <v>33939</v>
       </c>
@@ -1432,7 +1486,7 @@
         <v>76.465999999999994</v>
       </c>
     </row>
-    <row r="74" spans="1:2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A74" s="1">
         <v>33970</v>
       </c>
@@ -1440,7 +1494,7 @@
         <v>76.396999999999906</v>
       </c>
     </row>
-    <row r="75" spans="1:2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A75" s="1">
         <v>34001</v>
       </c>
@@ -1448,7 +1502,7 @@
         <v>76.328999999999994</v>
       </c>
     </row>
-    <row r="76" spans="1:2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A76" s="1">
         <v>34029</v>
       </c>
@@ -1456,7 +1510,7 @@
         <v>76.384</v>
       </c>
     </row>
-    <row r="77" spans="1:2">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A77" s="1">
         <v>34060</v>
       </c>
@@ -1464,7 +1518,7 @@
         <v>76.661999999999907</v>
       </c>
     </row>
-    <row r="78" spans="1:2">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A78" s="1">
         <v>34090</v>
       </c>
@@ -1472,7 +1526,7 @@
         <v>77.031000000000006</v>
       </c>
     </row>
-    <row r="79" spans="1:2">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A79" s="1">
         <v>34121</v>
       </c>
@@ -1480,7 +1534,7 @@
         <v>77.516000000000005</v>
       </c>
     </row>
-    <row r="80" spans="1:2">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A80" s="1">
         <v>34151</v>
       </c>
@@ -1488,7 +1542,7 @@
         <v>77.884</v>
       </c>
     </row>
-    <row r="81" spans="1:2">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A81" s="1">
         <v>34182</v>
       </c>
@@ -1496,7 +1550,7 @@
         <v>78.13</v>
       </c>
     </row>
-    <row r="82" spans="1:2">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A82" s="1">
         <v>34213</v>
       </c>
@@ -1504,7 +1558,7 @@
         <v>78.2</v>
       </c>
     </row>
-    <row r="83" spans="1:2">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A83" s="1">
         <v>34243</v>
       </c>
@@ -1512,7 +1566,7 @@
         <v>78.176000000000002</v>
       </c>
     </row>
-    <row r="84" spans="1:2">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A84" s="1">
         <v>34274</v>
       </c>
@@ -1520,7 +1574,7 @@
         <v>78.176000000000002</v>
       </c>
     </row>
-    <row r="85" spans="1:2">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A85" s="1">
         <v>34304</v>
       </c>
@@ -1528,7 +1582,7 @@
         <v>78.119</v>
       </c>
     </row>
-    <row r="86" spans="1:2">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A86" s="1">
         <v>34335</v>
       </c>
@@ -1536,7 +1590,7 @@
         <v>78.203000000000003</v>
       </c>
     </row>
-    <row r="87" spans="1:2">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A87" s="1">
         <v>34366</v>
       </c>
@@ -1544,7 +1598,7 @@
         <v>78.209000000000003</v>
       </c>
     </row>
-    <row r="88" spans="1:2">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A88" s="1">
         <v>34394</v>
       </c>
@@ -1552,7 +1606,7 @@
         <v>78.353999999999999</v>
       </c>
     </row>
-    <row r="89" spans="1:2">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A89" s="1">
         <v>34425</v>
       </c>
@@ -1560,7 +1614,7 @@
         <v>78.707999999999998</v>
       </c>
     </row>
-    <row r="90" spans="1:2">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A90" s="1">
         <v>34455</v>
       </c>
@@ -1568,7 +1622,7 @@
         <v>79.216999999999999</v>
       </c>
     </row>
-    <row r="91" spans="1:2">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A91" s="1">
         <v>34486</v>
       </c>
@@ -1576,7 +1630,7 @@
         <v>79.709999999999994</v>
       </c>
     </row>
-    <row r="92" spans="1:2">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A92" s="1">
         <v>34516</v>
       </c>
@@ -1584,7 +1638,7 @@
         <v>80.072000000000003</v>
       </c>
     </row>
-    <row r="93" spans="1:2">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A93" s="1">
         <v>34547</v>
       </c>
@@ -1592,7 +1646,7 @@
         <v>80.325000000000003</v>
       </c>
     </row>
-    <row r="94" spans="1:2">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A94" s="1">
         <v>34578</v>
       </c>
@@ -1600,7 +1654,7 @@
         <v>80.346000000000004</v>
       </c>
     </row>
-    <row r="95" spans="1:2">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A95" s="1">
         <v>34608</v>
       </c>
@@ -1608,7 +1662,7 @@
         <v>80.308999999999997</v>
       </c>
     </row>
-    <row r="96" spans="1:2">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A96" s="1">
         <v>34639</v>
       </c>
@@ -1616,7 +1670,7 @@
         <v>80.173999999999893</v>
       </c>
     </row>
-    <row r="97" spans="1:2">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A97" s="1">
         <v>34669</v>
       </c>
@@ -1624,7 +1678,7 @@
         <v>80.084000000000003</v>
       </c>
     </row>
-    <row r="98" spans="1:2">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A98" s="1">
         <v>34700</v>
       </c>
@@ -1632,7 +1686,7 @@
         <v>80.034999999999997</v>
       </c>
     </row>
-    <row r="99" spans="1:2">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A99" s="1">
         <v>34731</v>
       </c>
@@ -1640,7 +1694,7 @@
         <v>80.003999999999905</v>
       </c>
     </row>
-    <row r="100" spans="1:2">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A100" s="1">
         <v>34759</v>
       </c>
@@ -1648,7 +1702,7 @@
         <v>80.093000000000004</v>
       </c>
     </row>
-    <row r="101" spans="1:2">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A101" s="1">
         <v>34790</v>
       </c>
@@ -1656,7 +1710,7 @@
         <v>80.385999999999996</v>
       </c>
     </row>
-    <row r="102" spans="1:2">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A102" s="1">
         <v>34820</v>
       </c>
@@ -1664,7 +1718,7 @@
         <v>80.707999999999998</v>
       </c>
     </row>
-    <row r="103" spans="1:2">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A103" s="1">
         <v>34851</v>
       </c>
@@ -1672,7 +1726,7 @@
         <v>81.084000000000003</v>
       </c>
     </row>
-    <row r="104" spans="1:2">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A104" s="1">
         <v>34881</v>
       </c>
@@ -1680,7 +1734,7 @@
         <v>81.426999999999893</v>
       </c>
     </row>
-    <row r="105" spans="1:2">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A105" s="1">
         <v>34912</v>
       </c>
@@ -1688,7 +1742,7 @@
         <v>81.67</v>
       </c>
     </row>
-    <row r="106" spans="1:2">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A106" s="1">
         <v>34943</v>
       </c>
@@ -1696,7 +1750,7 @@
         <v>81.754999999999995</v>
       </c>
     </row>
-    <row r="107" spans="1:2">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A107" s="1">
         <v>34973</v>
       </c>
@@ -1704,7 +1758,7 @@
         <v>81.744</v>
       </c>
     </row>
-    <row r="108" spans="1:2">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A108" s="1">
         <v>35004</v>
       </c>
@@ -1712,7 +1766,7 @@
         <v>81.649000000000001</v>
       </c>
     </row>
-    <row r="109" spans="1:2">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A109" s="1">
         <v>35034</v>
       </c>
@@ -1720,7 +1774,7 @@
         <v>81.533000000000001</v>
       </c>
     </row>
-    <row r="110" spans="1:2">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A110" s="1">
         <v>35065</v>
       </c>
@@ -1728,7 +1782,7 @@
         <v>81.447000000000003</v>
       </c>
     </row>
-    <row r="111" spans="1:2">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A111" s="1">
         <v>35096</v>
       </c>
@@ -1736,7 +1790,7 @@
         <v>81.421000000000006</v>
       </c>
     </row>
-    <row r="112" spans="1:2">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A112" s="1">
         <v>35125</v>
       </c>
@@ -1744,7 +1798,7 @@
         <v>81.686000000000007</v>
       </c>
     </row>
-    <row r="113" spans="1:2">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A113" s="1">
         <v>35156</v>
       </c>
@@ -1752,7 +1806,7 @@
         <v>82.143999999999906</v>
       </c>
     </row>
-    <row r="114" spans="1:2">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A114" s="1">
         <v>35186</v>
       </c>
@@ -1760,7 +1814,7 @@
         <v>82.622</v>
       </c>
     </row>
-    <row r="115" spans="1:2">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A115" s="1">
         <v>35217</v>
       </c>
@@ -1768,7 +1822,7 @@
         <v>83.070999999999998</v>
       </c>
     </row>
-    <row r="116" spans="1:2">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A116" s="1">
         <v>35247</v>
       </c>
@@ -1776,7 +1830,7 @@
         <v>83.442999999999998</v>
       </c>
     </row>
-    <row r="117" spans="1:2">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A117" s="1">
         <v>35278</v>
       </c>
@@ -1784,7 +1838,7 @@
         <v>83.671000000000006</v>
       </c>
     </row>
-    <row r="118" spans="1:2">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A118" s="1">
         <v>35309</v>
       </c>
@@ -1792,7 +1846,7 @@
         <v>83.727000000000004</v>
       </c>
     </row>
-    <row r="119" spans="1:2">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A119" s="1">
         <v>35339</v>
       </c>
@@ -1800,7 +1854,7 @@
         <v>83.653999999999996</v>
       </c>
     </row>
-    <row r="120" spans="1:2">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A120" s="1">
         <v>35370</v>
       </c>
@@ -1808,7 +1862,7 @@
         <v>83.58</v>
       </c>
     </row>
-    <row r="121" spans="1:2">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A121" s="1">
         <v>35400</v>
       </c>
@@ -1816,7 +1870,7 @@
         <v>83.513999999999996</v>
       </c>
     </row>
-    <row r="122" spans="1:2">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A122" s="1">
         <v>35431</v>
       </c>
@@ -1824,7 +1878,7 @@
         <v>83.552999999999997</v>
       </c>
     </row>
-    <row r="123" spans="1:2">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A123" s="1">
         <v>35462</v>
       </c>
@@ -1832,7 +1886,7 @@
         <v>83.617999999999995</v>
       </c>
     </row>
-    <row r="124" spans="1:2">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A124" s="1">
         <v>35490</v>
       </c>
@@ -1840,7 +1894,7 @@
         <v>83.933999999999997</v>
       </c>
     </row>
-    <row r="125" spans="1:2">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A125" s="1">
         <v>35521</v>
       </c>
@@ -1848,7 +1902,7 @@
         <v>84.347999999999999</v>
       </c>
     </row>
-    <row r="126" spans="1:2">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A126" s="1">
         <v>35551</v>
       </c>
@@ -1856,7 +1910,7 @@
         <v>84.894999999999996</v>
       </c>
     </row>
-    <row r="127" spans="1:2">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A127" s="1">
         <v>35582</v>
       </c>
@@ -1864,7 +1918,7 @@
         <v>85.427999999999997</v>
       </c>
     </row>
-    <row r="128" spans="1:2">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A128" s="1">
         <v>35612</v>
       </c>
@@ -1872,7 +1926,7 @@
         <v>85.87</v>
       </c>
     </row>
-    <row r="129" spans="1:2">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A129" s="1">
         <v>35643</v>
       </c>
@@ -1880,7 +1934,7 @@
         <v>86.179000000000002</v>
       </c>
     </row>
-    <row r="130" spans="1:2">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A130" s="1">
         <v>35674</v>
       </c>
@@ -1888,7 +1942,7 @@
         <v>86.338999999999999</v>
       </c>
     </row>
-    <row r="131" spans="1:2">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A131" s="1">
         <v>35704</v>
       </c>
@@ -1896,7 +1950,7 @@
         <v>86.436000000000007</v>
       </c>
     </row>
-    <row r="132" spans="1:2">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A132" s="1">
         <v>35735</v>
       </c>
@@ -1904,7 +1958,7 @@
         <v>86.66</v>
       </c>
     </row>
-    <row r="133" spans="1:2">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A133" s="1">
         <v>35765</v>
       </c>
@@ -1912,7 +1966,7 @@
         <v>86.876000000000005</v>
       </c>
     </row>
-    <row r="134" spans="1:2">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A134" s="1">
         <v>35796</v>
       </c>
@@ -1920,7 +1974,7 @@
         <v>87.192999999999998</v>
       </c>
     </row>
-    <row r="135" spans="1:2">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A135" s="1">
         <v>35827</v>
       </c>
@@ -1928,7 +1982,7 @@
         <v>87.402999999999906</v>
       </c>
     </row>
-    <row r="136" spans="1:2">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A136" s="1">
         <v>35855</v>
       </c>
@@ -1936,7 +1990,7 @@
         <v>87.906999999999996</v>
       </c>
     </row>
-    <row r="137" spans="1:2">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A137" s="1">
         <v>35886</v>
       </c>
@@ -1944,7 +1998,7 @@
         <v>88.587000000000003</v>
       </c>
     </row>
-    <row r="138" spans="1:2">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A138" s="1">
         <v>35916</v>
       </c>
@@ -1952,7 +2006,7 @@
         <v>89.402000000000001</v>
       </c>
     </row>
-    <row r="139" spans="1:2">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A139" s="1">
         <v>35947</v>
       </c>
@@ -1960,7 +2014,7 @@
         <v>90.221999999999994</v>
       </c>
     </row>
-    <row r="140" spans="1:2">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A140" s="1">
         <v>35977</v>
       </c>
@@ -1968,7 +2022,7 @@
         <v>90.885999999999996</v>
       </c>
     </row>
-    <row r="141" spans="1:2">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A141" s="1">
         <v>36008</v>
       </c>
@@ -1976,7 +2030,7 @@
         <v>91.433999999999997</v>
       </c>
     </row>
-    <row r="142" spans="1:2">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A142" s="1">
         <v>36039</v>
       </c>
@@ -1984,7 +2038,7 @@
         <v>91.777999999999906</v>
       </c>
     </row>
-    <row r="143" spans="1:2">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A143" s="1">
         <v>36069</v>
       </c>
@@ -1992,7 +2046,7 @@
         <v>92.025000000000006</v>
       </c>
     </row>
-    <row r="144" spans="1:2">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A144" s="1">
         <v>36100</v>
       </c>
@@ -2000,7 +2054,7 @@
         <v>92.222999999999999</v>
       </c>
     </row>
-    <row r="145" spans="1:2">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A145" s="1">
         <v>36130</v>
       </c>
@@ -2008,7 +2062,7 @@
         <v>92.468999999999994</v>
       </c>
     </row>
-    <row r="146" spans="1:2">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A146" s="1">
         <v>36161</v>
       </c>
@@ -2016,7 +2070,7 @@
         <v>92.738999999999905</v>
       </c>
     </row>
-    <row r="147" spans="1:2">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A147" s="1">
         <v>36192</v>
       </c>
@@ -2024,7 +2078,7 @@
         <v>93.006</v>
       </c>
     </row>
-    <row r="148" spans="1:2">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A148" s="1">
         <v>36220</v>
       </c>
@@ -2032,7 +2086,7 @@
         <v>93.637</v>
       </c>
     </row>
-    <row r="149" spans="1:2">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A149" s="1">
         <v>36251</v>
       </c>
@@ -2040,7 +2094,7 @@
         <v>94.463999999999999</v>
       </c>
     </row>
-    <row r="150" spans="1:2">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A150" s="1">
         <v>36281</v>
       </c>
@@ -2048,7 +2102,7 @@
         <v>95.388999999999996</v>
       </c>
     </row>
-    <row r="151" spans="1:2">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A151" s="1">
         <v>36312</v>
       </c>
@@ -2056,7 +2110,7 @@
         <v>96.391999999999996</v>
       </c>
     </row>
-    <row r="152" spans="1:2">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A152" s="1">
         <v>36342</v>
       </c>
@@ -2064,7 +2118,7 @@
         <v>97.22</v>
       </c>
     </row>
-    <row r="153" spans="1:2">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A153" s="1">
         <v>36373</v>
       </c>
@@ -2072,7 +2126,7 @@
         <v>97.926000000000002</v>
       </c>
     </row>
-    <row r="154" spans="1:2">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A154" s="1">
         <v>36404</v>
       </c>
@@ -2080,7 +2134,7 @@
         <v>98.43</v>
       </c>
     </row>
-    <row r="155" spans="1:2">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A155" s="1">
         <v>36434</v>
       </c>
@@ -2088,7 +2142,7 @@
         <v>98.863999999999905</v>
       </c>
     </row>
-    <row r="156" spans="1:2">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A156" s="1">
         <v>36465</v>
       </c>
@@ -2096,7 +2150,7 @@
         <v>99.182999999999893</v>
       </c>
     </row>
-    <row r="157" spans="1:2">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A157" s="1">
         <v>36495</v>
       </c>
@@ -2104,7 +2158,7 @@
         <v>99.576999999999998</v>
       </c>
     </row>
-    <row r="158" spans="1:2">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A158" s="1">
         <v>36526</v>
       </c>
@@ -2112,7 +2166,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="159" spans="1:2">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A159" s="1">
         <v>36557</v>
       </c>
@@ -2120,7 +2174,7 @@
         <v>100.57</v>
       </c>
     </row>
-    <row r="160" spans="1:2">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A160" s="1">
         <v>36586</v>
       </c>
@@ -2128,7 +2182,7 @@
         <v>101.46599999999999</v>
       </c>
     </row>
-    <row r="161" spans="1:2">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A161" s="1">
         <v>36617</v>
       </c>
@@ -2136,7 +2190,7 @@
         <v>102.541</v>
       </c>
     </row>
-    <row r="162" spans="1:2">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A162" s="1">
         <v>36647</v>
       </c>
@@ -2144,7 +2198,7 @@
         <v>103.70299999999899</v>
       </c>
     </row>
-    <row r="163" spans="1:2">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A163" s="1">
         <v>36678</v>
       </c>
@@ -2152,7 +2206,7 @@
         <v>104.857</v>
       </c>
     </row>
-    <row r="164" spans="1:2">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A164" s="1">
         <v>36708</v>
       </c>
@@ -2160,7 +2214,7 @@
         <v>105.723</v>
       </c>
     </row>
-    <row r="165" spans="1:2">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A165" s="1">
         <v>36739</v>
       </c>
@@ -2168,7 +2222,7 @@
         <v>106.52200000000001</v>
       </c>
     </row>
-    <row r="166" spans="1:2">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A166" s="1">
         <v>36770</v>
       </c>
@@ -2176,7 +2230,7 @@
         <v>107.136</v>
       </c>
     </row>
-    <row r="167" spans="1:2">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A167" s="1">
         <v>36800</v>
       </c>
@@ -2184,7 +2238,7 @@
         <v>107.729</v>
       </c>
     </row>
-    <row r="168" spans="1:2">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A168" s="1">
         <v>36831</v>
       </c>
@@ -2192,7 +2246,7 @@
         <v>108.291</v>
       </c>
     </row>
-    <row r="169" spans="1:2">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A169" s="1">
         <v>36861</v>
       </c>
@@ -2200,7 +2254,7 @@
         <v>108.792</v>
       </c>
     </row>
-    <row r="170" spans="1:2">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A170" s="1">
         <v>36892</v>
       </c>
@@ -2208,7 +2262,7 @@
         <v>109.21599999999999</v>
       </c>
     </row>
-    <row r="171" spans="1:2">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A171" s="1">
         <v>36923</v>
       </c>
@@ -2216,7 +2270,7 @@
         <v>109.643999999999</v>
       </c>
     </row>
-    <row r="172" spans="1:2">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A172" s="1">
         <v>36951</v>
       </c>
@@ -2224,7 +2278,7 @@
         <v>110.396</v>
       </c>
     </row>
-    <row r="173" spans="1:2">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A173" s="1">
         <v>36982</v>
       </c>
@@ -2232,7 +2286,7 @@
         <v>111.249</v>
       </c>
     </row>
-    <row r="174" spans="1:2">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A174" s="1">
         <v>37012</v>
       </c>
@@ -2240,7 +2294,7 @@
         <v>112.20399999999999</v>
       </c>
     </row>
-    <row r="175" spans="1:2">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A175" s="1">
         <v>37043</v>
       </c>
@@ -2248,7 +2302,7 @@
         <v>113.274</v>
       </c>
     </row>
-    <row r="176" spans="1:2">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A176" s="1">
         <v>37073</v>
       </c>
@@ -2256,7 +2310,7 @@
         <v>114.23</v>
       </c>
     </row>
-    <row r="177" spans="1:2">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A177" s="1">
         <v>37104</v>
       </c>
@@ -2264,7 +2318,7 @@
         <v>114.991</v>
       </c>
     </row>
-    <row r="178" spans="1:2">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A178" s="1">
         <v>37135</v>
       </c>
@@ -2272,7 +2326,7 @@
         <v>115.467</v>
       </c>
     </row>
-    <row r="179" spans="1:2">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A179" s="1">
         <v>37165</v>
       </c>
@@ -2280,7 +2334,7 @@
         <v>115.682999999999</v>
       </c>
     </row>
-    <row r="180" spans="1:2">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A180" s="1">
         <v>37196</v>
       </c>
@@ -2288,7 +2342,7 @@
         <v>115.84</v>
       </c>
     </row>
-    <row r="181" spans="1:2">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A181" s="1">
         <v>37226</v>
       </c>
@@ -2296,7 +2350,7 @@
         <v>116.057</v>
       </c>
     </row>
-    <row r="182" spans="1:2">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A182" s="1">
         <v>37257</v>
       </c>
@@ -2304,7 +2358,7 @@
         <v>116.43899999999999</v>
       </c>
     </row>
-    <row r="183" spans="1:2">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A183" s="1">
         <v>37288</v>
       </c>
@@ -2312,7 +2366,7 @@
         <v>116.919</v>
       </c>
     </row>
-    <row r="184" spans="1:2">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A184" s="1">
         <v>37316</v>
       </c>
@@ -2320,7 +2374,7 @@
         <v>117.932999999999</v>
       </c>
     </row>
-    <row r="185" spans="1:2">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A185" s="1">
         <v>37347</v>
       </c>
@@ -2328,7 +2382,7 @@
         <v>119.21299999999999</v>
       </c>
     </row>
-    <row r="186" spans="1:2">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A186" s="1">
         <v>37377</v>
       </c>
@@ -2336,7 +2390,7 @@
         <v>120.792</v>
       </c>
     </row>
-    <row r="187" spans="1:2">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A187" s="1">
         <v>37408</v>
       </c>
@@ -2344,7 +2398,7 @@
         <v>122.336</v>
       </c>
     </row>
-    <row r="188" spans="1:2">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A188" s="1">
         <v>37438</v>
       </c>
@@ -2352,7 +2406,7 @@
         <v>123.68799999999899</v>
       </c>
     </row>
-    <row r="189" spans="1:2">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A189" s="1">
         <v>37469</v>
       </c>
@@ -2360,7 +2414,7 @@
         <v>124.73</v>
       </c>
     </row>
-    <row r="190" spans="1:2">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A190" s="1">
         <v>37500</v>
       </c>
@@ -2368,7 +2422,7 @@
         <v>125.494</v>
       </c>
     </row>
-    <row r="191" spans="1:2">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A191" s="1">
         <v>37530</v>
       </c>
@@ -2376,7 +2430,7 @@
         <v>126.136</v>
       </c>
     </row>
-    <row r="192" spans="1:2">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A192" s="1">
         <v>37561</v>
       </c>
@@ -2384,7 +2438,7 @@
         <v>126.642</v>
       </c>
     </row>
-    <row r="193" spans="1:2">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A193" s="1">
         <v>37591</v>
       </c>
@@ -2392,7 +2446,7 @@
         <v>127.15</v>
       </c>
     </row>
-    <row r="194" spans="1:2">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A194" s="1">
         <v>37622</v>
       </c>
@@ -2400,7 +2454,7 @@
         <v>127.652</v>
       </c>
     </row>
-    <row r="195" spans="1:2">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A195" s="1">
         <v>37653</v>
       </c>
@@ -2408,7 +2462,7 @@
         <v>128.327</v>
       </c>
     </row>
-    <row r="196" spans="1:2">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A196" s="1">
         <v>37681</v>
       </c>
@@ -2416,7 +2470,7 @@
         <v>129.31</v>
       </c>
     </row>
-    <row r="197" spans="1:2">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A197" s="1">
         <v>37712</v>
       </c>
@@ -2424,7 +2478,7 @@
         <v>130.49100000000001</v>
       </c>
     </row>
-    <row r="198" spans="1:2">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A198" s="1">
         <v>37742</v>
       </c>
@@ -2432,7 +2486,7 @@
         <v>131.84200000000001</v>
       </c>
     </row>
-    <row r="199" spans="1:2">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A199" s="1">
         <v>37773</v>
       </c>
@@ -2440,7 +2494,7 @@
         <v>133.226</v>
       </c>
     </row>
-    <row r="200" spans="1:2">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A200" s="1">
         <v>37803</v>
       </c>
@@ -2448,7 +2502,7 @@
         <v>134.64699999999999</v>
       </c>
     </row>
-    <row r="201" spans="1:2">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A201" s="1">
         <v>37834</v>
       </c>
@@ -2456,7 +2510,7 @@
         <v>135.965</v>
       </c>
     </row>
-    <row r="202" spans="1:2">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A202" s="1">
         <v>37865</v>
       </c>
@@ -2464,7 +2518,7 @@
         <v>137.077</v>
       </c>
     </row>
-    <row r="203" spans="1:2">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A203" s="1">
         <v>37895</v>
       </c>
@@ -2472,7 +2526,7 @@
         <v>137.97899999999899</v>
       </c>
     </row>
-    <row r="204" spans="1:2">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A204" s="1">
         <v>37926</v>
       </c>
@@ -2480,7 +2534,7 @@
         <v>138.77000000000001</v>
       </c>
     </row>
-    <row r="205" spans="1:2">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A205" s="1">
         <v>37956</v>
       </c>
@@ -2488,7 +2542,7 @@
         <v>139.63299999999899</v>
       </c>
     </row>
-    <row r="206" spans="1:2">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A206" s="1">
         <v>37987</v>
       </c>
@@ -2496,7 +2550,7 @@
         <v>140.71100000000001</v>
       </c>
     </row>
-    <row r="207" spans="1:2">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A207" s="1">
         <v>38018</v>
       </c>
@@ -2504,7 +2558,7 @@
         <v>142.035</v>
       </c>
     </row>
-    <row r="208" spans="1:2">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A208" s="1">
         <v>38047</v>
       </c>
@@ -2512,7 +2566,7 @@
         <v>144.08600000000001</v>
       </c>
     </row>
-    <row r="209" spans="1:2">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A209" s="1">
         <v>38078</v>
       </c>
@@ -2520,7 +2574,7 @@
         <v>146.18299999999999</v>
       </c>
     </row>
-    <row r="210" spans="1:2">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A210" s="1">
         <v>38108</v>
       </c>
@@ -2528,7 +2582,7 @@
         <v>148.33600000000001</v>
       </c>
     </row>
-    <row r="211" spans="1:2">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A211" s="1">
         <v>38139</v>
       </c>
@@ -2536,7 +2590,7 @@
         <v>150.51900000000001</v>
       </c>
     </row>
-    <row r="212" spans="1:2">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A212" s="1">
         <v>38169</v>
       </c>
@@ -2544,7 +2598,7 @@
         <v>152.33799999999999</v>
       </c>
     </row>
-    <row r="213" spans="1:2">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A213" s="1">
         <v>38200</v>
       </c>
@@ -2552,7 +2606,7 @@
         <v>153.81399999999999</v>
       </c>
     </row>
-    <row r="214" spans="1:2">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A214" s="1">
         <v>38231</v>
       </c>
@@ -2560,7 +2614,7 @@
         <v>155.10900000000001</v>
       </c>
     </row>
-    <row r="215" spans="1:2">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A215" s="1">
         <v>38261</v>
       </c>
@@ -2568,7 +2622,7 @@
         <v>156.30099999999999</v>
       </c>
     </row>
-    <row r="216" spans="1:2">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A216" s="1">
         <v>38292</v>
       </c>
@@ -2576,7 +2630,7 @@
         <v>157.499</v>
       </c>
     </row>
-    <row r="217" spans="1:2">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A217" s="1">
         <v>38322</v>
       </c>
@@ -2584,7 +2638,7 @@
         <v>158.67500000000001</v>
       </c>
     </row>
-    <row r="218" spans="1:2">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A218" s="1">
         <v>38353</v>
       </c>
@@ -2592,7 +2646,7 @@
         <v>160.137</v>
       </c>
     </row>
-    <row r="219" spans="1:2">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A219" s="1">
         <v>38384</v>
       </c>
@@ -2600,7 +2654,7 @@
         <v>161.93199999999999</v>
       </c>
     </row>
-    <row r="220" spans="1:2">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A220" s="1">
         <v>38412</v>
       </c>
@@ -2608,7 +2662,7 @@
         <v>164.583</v>
       </c>
     </row>
-    <row r="221" spans="1:2">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A221" s="1">
         <v>38443</v>
       </c>
@@ -2616,7 +2670,7 @@
         <v>167.00200000000001</v>
       </c>
     </row>
-    <row r="222" spans="1:2">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A222" s="1">
         <v>38473</v>
       </c>
@@ -2624,7 +2678,7 @@
         <v>169.54400000000001</v>
       </c>
     </row>
-    <row r="223" spans="1:2">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A223" s="1">
         <v>38504</v>
       </c>
@@ -2632,7 +2686,7 @@
         <v>172.01499999999999</v>
       </c>
     </row>
-    <row r="224" spans="1:2">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A224" s="1">
         <v>38534</v>
       </c>
@@ -2640,7 +2694,7 @@
         <v>174.09700000000001</v>
       </c>
     </row>
-    <row r="225" spans="1:2">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A225" s="1">
         <v>38565</v>
       </c>
@@ -2648,7 +2702,7 @@
         <v>175.923</v>
       </c>
     </row>
-    <row r="226" spans="1:2">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A226" s="1">
         <v>38596</v>
       </c>
@@ -2656,7 +2710,7 @@
         <v>177.61199999999999</v>
       </c>
     </row>
-    <row r="227" spans="1:2">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A227" s="1">
         <v>38626</v>
       </c>
@@ -2664,7 +2718,7 @@
         <v>178.755</v>
       </c>
     </row>
-    <row r="228" spans="1:2">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A228" s="1">
         <v>38657</v>
       </c>
@@ -2672,7 +2726,7 @@
         <v>179.679</v>
       </c>
     </row>
-    <row r="229" spans="1:2">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A229" s="1">
         <v>38687</v>
       </c>
@@ -2680,7 +2734,7 @@
         <v>180.113</v>
       </c>
     </row>
-    <row r="230" spans="1:2">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A230" s="1">
         <v>38718</v>
       </c>
@@ -2688,7 +2742,7 @@
         <v>180.833</v>
       </c>
     </row>
-    <row r="231" spans="1:2">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A231" s="1">
         <v>38749</v>
       </c>
@@ -2696,7 +2750,7 @@
         <v>181.505</v>
       </c>
     </row>
-    <row r="232" spans="1:2">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A232" s="1">
         <v>38777</v>
       </c>
@@ -2704,7 +2758,7 @@
         <v>182.75399999999999</v>
       </c>
     </row>
-    <row r="233" spans="1:2">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A233" s="1">
         <v>38808</v>
       </c>
@@ -2712,7 +2766,7 @@
         <v>183.65199999999999</v>
       </c>
     </row>
-    <row r="234" spans="1:2">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A234" s="1">
         <v>38838</v>
       </c>
@@ -2720,7 +2774,7 @@
         <v>184.38399999999999</v>
       </c>
     </row>
-    <row r="235" spans="1:2">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A235" s="1">
         <v>38869</v>
       </c>
@@ -2728,7 +2782,7 @@
         <v>184.553</v>
       </c>
     </row>
-    <row r="236" spans="1:2">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A236" s="1">
         <v>38899</v>
       </c>
@@ -2736,7 +2790,7 @@
         <v>184.61599999999899</v>
       </c>
     </row>
-    <row r="237" spans="1:2">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A237" s="1">
         <v>38930</v>
       </c>
@@ -2744,7 +2798,7 @@
         <v>184.41399999999999</v>
       </c>
     </row>
-    <row r="238" spans="1:2">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A238" s="1">
         <v>38961</v>
       </c>
@@ -2752,7 +2806,7 @@
         <v>184.208</v>
       </c>
     </row>
-    <row r="239" spans="1:2">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A239" s="1">
         <v>38991</v>
       </c>
@@ -2760,7 +2814,7 @@
         <v>184.06299999999999</v>
       </c>
     </row>
-    <row r="240" spans="1:2">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A240" s="1">
         <v>39022</v>
       </c>
@@ -2768,7 +2822,7 @@
         <v>183.64</v>
       </c>
     </row>
-    <row r="241" spans="1:2">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A241" s="1">
         <v>39052</v>
       </c>
@@ -2776,7 +2830,7 @@
         <v>183.23699999999999</v>
       </c>
     </row>
-    <row r="242" spans="1:2">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A242" s="1">
         <v>39083</v>
       </c>
@@ -2784,7 +2838,7 @@
         <v>182.72399999999999</v>
       </c>
     </row>
-    <row r="243" spans="1:2">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A243" s="1">
         <v>39114</v>
       </c>
@@ -2792,7 +2846,7 @@
         <v>182.476</v>
       </c>
     </row>
-    <row r="244" spans="1:2">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A244" s="1">
         <v>39142</v>
       </c>
@@ -2800,7 +2854,7 @@
         <v>182.19799999999901</v>
       </c>
     </row>
-    <row r="245" spans="1:2">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A245" s="1">
         <v>39173</v>
       </c>
@@ -2808,7 +2862,7 @@
         <v>182.137</v>
       </c>
     </row>
-    <row r="246" spans="1:2">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A246" s="1">
         <v>39203</v>
       </c>
@@ -2816,7 +2870,7 @@
         <v>181.892</v>
       </c>
     </row>
-    <row r="247" spans="1:2">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A247" s="1">
         <v>39234</v>
       </c>
@@ -2824,7 +2878,7 @@
         <v>181.548</v>
       </c>
     </row>
-    <row r="248" spans="1:2">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A248" s="1">
         <v>39264</v>
       </c>
@@ -2832,7 +2886,7 @@
         <v>181.00299999999999</v>
       </c>
     </row>
-    <row r="249" spans="1:2">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A249" s="1">
         <v>39295</v>
       </c>
@@ -2840,7 +2894,7 @@
         <v>180.244</v>
       </c>
     </row>
-    <row r="250" spans="1:2">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A250" s="1">
         <v>39326</v>
       </c>
@@ -2848,7 +2902,7 @@
         <v>179.13200000000001</v>
       </c>
     </row>
-    <row r="251" spans="1:2">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A251" s="1">
         <v>39356</v>
       </c>
@@ -2856,7 +2910,7 @@
         <v>177.542</v>
       </c>
     </row>
-    <row r="252" spans="1:2">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A252" s="1">
         <v>39387</v>
       </c>
@@ -2864,7 +2918,7 @@
         <v>175.17400000000001</v>
       </c>
     </row>
-    <row r="253" spans="1:2">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A253" s="1">
         <v>39417</v>
       </c>
@@ -2872,7 +2926,7 @@
         <v>173.34799999999899</v>
       </c>
     </row>
-    <row r="254" spans="1:2">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A254" s="1">
         <v>39448</v>
       </c>
@@ -2880,7 +2934,7 @@
         <v>171.084</v>
       </c>
     </row>
-    <row r="255" spans="1:2">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A255" s="1">
         <v>39479</v>
       </c>
@@ -2888,7 +2942,7 @@
         <v>169.196</v>
       </c>
     </row>
-    <row r="256" spans="1:2">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A256" s="1">
         <v>39508</v>
       </c>
@@ -2896,7 +2950,7 @@
         <v>167.90899999999999</v>
       </c>
     </row>
-    <row r="257" spans="1:2">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A257" s="1">
         <v>39539</v>
       </c>
@@ -2904,7 +2958,7 @@
         <v>167.32900000000001</v>
       </c>
     </row>
-    <row r="258" spans="1:2">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A258" s="1">
         <v>39569</v>
       </c>
@@ -2912,7 +2966,7 @@
         <v>167.02799999999999</v>
       </c>
     </row>
-    <row r="259" spans="1:2">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A259" s="1">
         <v>39600</v>
       </c>
@@ -2920,7 +2974,7 @@
         <v>166.547</v>
       </c>
     </row>
-    <row r="260" spans="1:2">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A260" s="1">
         <v>39630</v>
       </c>
@@ -2928,7 +2982,7 @@
         <v>165.726</v>
       </c>
     </row>
-    <row r="261" spans="1:2">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A261" s="1">
         <v>39661</v>
       </c>
@@ -2936,7 +2990,7 @@
         <v>164.291</v>
       </c>
     </row>
-    <row r="262" spans="1:2">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A262" s="1">
         <v>39692</v>
       </c>
@@ -2944,7 +2998,7 @@
         <v>161.92400000000001</v>
       </c>
     </row>
-    <row r="263" spans="1:2">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A263" s="1">
         <v>39722</v>
       </c>
@@ -2952,7 +3006,7 @@
         <v>159.17099999999999</v>
       </c>
     </row>
-    <row r="264" spans="1:2">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A264" s="1">
         <v>39753</v>
       </c>
@@ -2960,7 +3014,7 @@
         <v>156.07900000000001</v>
       </c>
     </row>
-    <row r="265" spans="1:2">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A265" s="1">
         <v>39783</v>
       </c>
@@ -2968,7 +3022,7 @@
         <v>152.553</v>
       </c>
     </row>
-    <row r="266" spans="1:2">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A266" s="1">
         <v>39814</v>
       </c>
@@ -2976,7 +3030,7 @@
         <v>149.37100000000001</v>
       </c>
     </row>
-    <row r="267" spans="1:2">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A267" s="1">
         <v>39845</v>
       </c>
@@ -2984,7 +3038,7 @@
         <v>147.62700000000001</v>
       </c>
     </row>
-    <row r="268" spans="1:2">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A268" s="1">
         <v>39873</v>
       </c>
@@ -2992,7 +3046,7 @@
         <v>146.524</v>
       </c>
     </row>
-    <row r="269" spans="1:2">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A269" s="1">
         <v>39904</v>
       </c>
@@ -3000,7 +3054,7 @@
         <v>146.952</v>
       </c>
     </row>
-    <row r="270" spans="1:2">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A270" s="1">
         <v>39934</v>
       </c>
@@ -3008,7 +3062,7 @@
         <v>148.178</v>
       </c>
     </row>
-    <row r="271" spans="1:2">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A271" s="1">
         <v>39965</v>
       </c>
@@ -3016,7 +3070,7 @@
         <v>149.804</v>
       </c>
     </row>
-    <row r="272" spans="1:2">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A272" s="1">
         <v>39995</v>
       </c>
@@ -3024,7 +3078,7 @@
         <v>150.75200000000001</v>
       </c>
     </row>
-    <row r="273" spans="1:2">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A273" s="1">
         <v>40026</v>
       </c>
@@ -3032,7 +3086,7 @@
         <v>150.66999999999999</v>
       </c>
     </row>
-    <row r="274" spans="1:2">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A274" s="1">
         <v>40057</v>
       </c>
@@ -3040,7 +3094,7 @@
         <v>149.62899999999999</v>
       </c>
     </row>
-    <row r="275" spans="1:2">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A275" s="1">
         <v>40087</v>
       </c>
@@ -3048,7 +3102,7 @@
         <v>148.589</v>
       </c>
     </row>
-    <row r="276" spans="1:2">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A276" s="1">
         <v>40118</v>
       </c>
@@ -3056,7 +3110,7 @@
         <v>147.947</v>
       </c>
     </row>
-    <row r="277" spans="1:2">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A277" s="1">
         <v>40148</v>
       </c>
@@ -3064,7 +3118,7 @@
         <v>146.67599999999999</v>
       </c>
     </row>
-    <row r="278" spans="1:2">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A278" s="1">
         <v>40179</v>
       </c>
@@ -3072,7 +3126,7 @@
         <v>145.00299999999999</v>
       </c>
     </row>
-    <row r="279" spans="1:2">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A279" s="1">
         <v>40210</v>
       </c>
@@ -3080,7 +3134,7 @@
         <v>143.05600000000001</v>
       </c>
     </row>
-    <row r="280" spans="1:2">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A280" s="1">
         <v>40238</v>
       </c>
@@ -3088,7 +3142,7 @@
         <v>143.596</v>
       </c>
     </row>
-    <row r="281" spans="1:2">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A281" s="1">
         <v>40269</v>
       </c>
@@ -3096,7 +3150,7 @@
         <v>145.398</v>
       </c>
     </row>
-    <row r="282" spans="1:2">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A282" s="1">
         <v>40299</v>
       </c>
@@ -3104,7 +3158,7 @@
         <v>147.03100000000001</v>
       </c>
     </row>
-    <row r="283" spans="1:2">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A283" s="1">
         <v>40330</v>
       </c>
@@ -3112,7 +3166,7 @@
         <v>147.69499999999999</v>
       </c>
     </row>
-    <row r="284" spans="1:2">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A284" s="1">
         <v>40360</v>
       </c>
@@ -3120,7 +3174,7 @@
         <v>147.55199999999999</v>
       </c>
     </row>
-    <row r="285" spans="1:2">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A285" s="1">
         <v>40391</v>
       </c>
@@ -3128,7 +3182,7 @@
         <v>146.41299999999899</v>
       </c>
     </row>
-    <row r="286" spans="1:2">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A286" s="1">
         <v>40422</v>
       </c>
@@ -3136,7 +3190,7 @@
         <v>144.59700000000001</v>
       </c>
     </row>
-    <row r="287" spans="1:2">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A287" s="1">
         <v>40452</v>
       </c>
@@ -3144,7 +3198,7 @@
         <v>143.126</v>
       </c>
     </row>
-    <row r="288" spans="1:2">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A288" s="1">
         <v>40483</v>
       </c>
@@ -3152,7 +3206,7 @@
         <v>141.82299999999901</v>
       </c>
     </row>
-    <row r="289" spans="1:2">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A289" s="1">
         <v>40513</v>
       </c>
@@ -3160,7 +3214,7 @@
         <v>140.636</v>
       </c>
     </row>
-    <row r="290" spans="1:2">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A290" s="1">
         <v>40544</v>
       </c>
@@ -3168,7 +3222,7 @@
         <v>139.048</v>
       </c>
     </row>
-    <row r="291" spans="1:2">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A291" s="1">
         <v>40575</v>
       </c>
@@ -3176,7 +3230,7 @@
         <v>137.744</v>
       </c>
     </row>
-    <row r="292" spans="1:2">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A292" s="1">
         <v>40603</v>
       </c>
@@ -3184,7 +3238,7 @@
         <v>137.792</v>
       </c>
     </row>
-    <row r="293" spans="1:2">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A293" s="1">
         <v>40634</v>
       </c>
@@ -3192,7 +3246,7 @@
         <v>139.154</v>
       </c>
     </row>
-    <row r="294" spans="1:2">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A294" s="1">
         <v>40664</v>
       </c>
@@ -3200,7 +3254,7 @@
         <v>140.68199999999999</v>
       </c>
     </row>
-    <row r="295" spans="1:2">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A295" s="1">
         <v>40695</v>
       </c>
@@ -3208,7 +3262,7 @@
         <v>141.934</v>
       </c>
     </row>
-    <row r="296" spans="1:2">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A296" s="1">
         <v>40725</v>
       </c>
@@ -3216,7 +3270,7 @@
         <v>142.33000000000001</v>
       </c>
     </row>
-    <row r="297" spans="1:2">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A297" s="1">
         <v>40756</v>
       </c>
@@ -3224,7 +3278,7 @@
         <v>141.773</v>
       </c>
     </row>
-    <row r="298" spans="1:2">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A298" s="1">
         <v>40787</v>
       </c>
@@ -3232,7 +3286,7 @@
         <v>140.15600000000001</v>
       </c>
     </row>
-    <row r="299" spans="1:2">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A299" s="1">
         <v>40817</v>
       </c>
@@ -3240,7 +3294,7 @@
         <v>138.398</v>
       </c>
     </row>
-    <row r="300" spans="1:2">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A300" s="1">
         <v>40848</v>
       </c>
@@ -3248,7 +3302,7 @@
         <v>136.655</v>
       </c>
     </row>
-    <row r="301" spans="1:2">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A301" s="1">
         <v>40878</v>
       </c>
@@ -3256,7 +3310,7 @@
         <v>135.15799999999999</v>
       </c>
     </row>
-    <row r="302" spans="1:2">
+    <row r="302" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A302" s="1">
         <v>40909</v>
       </c>
@@ -3264,7 +3318,7 @@
         <v>134.16399999999999</v>
       </c>
     </row>
-    <row r="303" spans="1:2">
+    <row r="303" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A303" s="1">
         <v>40940</v>
       </c>
@@ -3272,7 +3326,7 @@
         <v>133.999</v>
       </c>
     </row>
-    <row r="304" spans="1:2">
+    <row r="304" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A304" s="1">
         <v>40969</v>
       </c>
@@ -3280,7 +3334,7 @@
         <v>135.87200000000001</v>
       </c>
     </row>
-    <row r="305" spans="1:2">
+    <row r="305" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A305" s="1">
         <v>41000</v>
       </c>
@@ -3288,7 +3342,7 @@
         <v>138.47899999999899</v>
       </c>
     </row>
-    <row r="306" spans="1:2">
+    <row r="306" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A306" s="1">
         <v>41030</v>
       </c>
@@ -3296,7 +3350,7 @@
         <v>141.05500000000001</v>
       </c>
     </row>
-    <row r="307" spans="1:2">
+    <row r="307" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A307" s="1">
         <v>41061</v>
       </c>
@@ -3304,7 +3358,7 @@
         <v>143.173</v>
       </c>
     </row>
-    <row r="308" spans="1:2">
+    <row r="308" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A308" s="1">
         <v>41091</v>
       </c>
@@ -3312,7 +3366,7 @@
         <v>144.28299999999999</v>
       </c>
     </row>
-    <row r="309" spans="1:2">
+    <row r="309" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A309" s="1">
         <v>41122</v>
       </c>
@@ -3320,7 +3374,7 @@
         <v>144.70599999999999</v>
       </c>
     </row>
-    <row r="310" spans="1:2">
+    <row r="310" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A310" s="1">
         <v>41153</v>
       </c>
@@ -3328,7 +3382,7 @@
         <v>144.36099999999999</v>
       </c>
     </row>
-    <row r="311" spans="1:2">
+    <row r="311" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A311" s="1">
         <v>41183</v>
       </c>
@@ -3336,7 +3390,7 @@
         <v>143.97399999999999</v>
       </c>
     </row>
-    <row r="312" spans="1:2">
+    <row r="312" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A312" s="1">
         <v>41214</v>
       </c>
@@ -3344,7 +3398,7 @@
         <v>143.96899999999999</v>
       </c>
     </row>
-    <row r="313" spans="1:2">
+    <row r="313" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A313" s="1">
         <v>41244</v>
       </c>
@@ -3352,7 +3406,7 @@
         <v>143.875</v>
       </c>
     </row>
-    <row r="314" spans="1:2">
+    <row r="314" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A314" s="1">
         <v>41275</v>
       </c>
@@ -3360,7 +3414,7 @@
         <v>144.31399999999999</v>
       </c>
     </row>
-    <row r="315" spans="1:2">
+    <row r="315" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A315" s="1">
         <v>41306</v>
       </c>
@@ -3368,7 +3422,7 @@
         <v>145.15799999999999</v>
       </c>
     </row>
-    <row r="316" spans="1:2">
+    <row r="316" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A316" s="1">
         <v>41334</v>
       </c>
@@ -3376,7 +3430,7 @@
         <v>147.959</v>
       </c>
     </row>
-    <row r="317" spans="1:2">
+    <row r="317" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A317" s="1">
         <v>41365</v>
       </c>
@@ -3384,7 +3438,7 @@
         <v>150.97399999999999</v>
       </c>
     </row>
-    <row r="318" spans="1:2">
+    <row r="318" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A318" s="1">
         <v>41395</v>
       </c>
@@ -3392,7 +3446,7 @@
         <v>153.87100000000001</v>
       </c>
     </row>
-    <row r="319" spans="1:2">
+    <row r="319" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A319" s="1">
         <v>41426</v>
       </c>
@@ -3400,7 +3454,7 @@
         <v>156.44299999999899</v>
       </c>
     </row>
-    <row r="320" spans="1:2">
+    <row r="320" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A320" s="1">
         <v>41456</v>
       </c>
@@ -3408,7 +3462,7 @@
         <v>158.30600000000001</v>
       </c>
     </row>
-    <row r="321" spans="1:2">
+    <row r="321" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A321" s="1">
         <v>41487</v>
       </c>
@@ -3416,7 +3470,7 @@
         <v>159.41399999999999</v>
       </c>
     </row>
-    <row r="322" spans="1:2">
+    <row r="322" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A322" s="1">
         <v>41518</v>
       </c>
@@ -3424,7 +3478,7 @@
         <v>159.69</v>
       </c>
     </row>
-    <row r="323" spans="1:2">
+    <row r="323" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A323" s="1">
         <v>41548</v>
       </c>
@@ -3432,7 +3486,7 @@
         <v>159.56700000000001</v>
       </c>
     </row>
-    <row r="324" spans="1:2">
+    <row r="324" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A324" s="1">
         <v>41579</v>
       </c>
@@ -3440,7 +3494,7 @@
         <v>159.37</v>
       </c>
     </row>
-    <row r="325" spans="1:2">
+    <row r="325" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A325" s="1">
         <v>41609</v>
       </c>
@@ -3448,7 +3502,7 @@
         <v>159.291</v>
       </c>
     </row>
-    <row r="326" spans="1:2">
+    <row r="326" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A326" s="1">
         <v>41640</v>
       </c>
@@ -3456,7 +3510,7 @@
         <v>159.38999999999999</v>
       </c>
     </row>
-    <row r="327" spans="1:2">
+    <row r="327" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A327" s="1">
         <v>41671</v>
       </c>
@@ -3464,7 +3518,7 @@
         <v>159.9</v>
       </c>
     </row>
-    <row r="328" spans="1:2">
+    <row r="328" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A328" s="1">
         <v>41699</v>
       </c>
@@ -3472,7 +3526,7 @@
         <v>161.21799999999999</v>
       </c>
     </row>
-    <row r="329" spans="1:2">
+    <row r="329" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A329" s="1">
         <v>41730</v>
       </c>
@@ -3480,7 +3534,7 @@
         <v>162.995</v>
       </c>
     </row>
-    <row r="330" spans="1:2">
+    <row r="330" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A330" s="1">
         <v>41760</v>
       </c>
@@ -3488,7 +3542,7 @@
         <v>164.70699999999999</v>
       </c>
     </row>
-    <row r="331" spans="1:2">
+    <row r="331" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A331" s="1">
         <v>41791</v>
       </c>
@@ -3496,7 +3550,7 @@
         <v>166.232</v>
       </c>
     </row>
-    <row r="332" spans="1:2">
+    <row r="332" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A332" s="1">
         <v>41821</v>
       </c>
@@ -3504,7 +3558,7 @@
         <v>167.15199999999999</v>
       </c>
     </row>
-    <row r="333" spans="1:2">
+    <row r="333" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A333" s="1">
         <v>41852</v>
       </c>
@@ -3512,7 +3566,7 @@
         <v>167.46700000000001</v>
       </c>
     </row>
-    <row r="334" spans="1:2">
+    <row r="334" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A334" s="1">
         <v>41883</v>
       </c>
@@ -3520,7 +3574,7 @@
         <v>167.261</v>
       </c>
     </row>
-    <row r="335" spans="1:2">
+    <row r="335" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A335" s="1">
         <v>41913</v>
       </c>
@@ -3528,7 +3582,7 @@
         <v>166.93199999999999</v>
       </c>
     </row>
-    <row r="336" spans="1:2">
+    <row r="336" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A336" s="1">
         <v>41944</v>
       </c>
@@ -3536,7 +3590,7 @@
         <v>166.684</v>
       </c>
     </row>
-    <row r="337" spans="1:2">
+    <row r="337" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A337" s="1">
         <v>41974</v>
       </c>
@@ -3544,7 +3598,7 @@
         <v>166.494</v>
       </c>
     </row>
-    <row r="338" spans="1:2">
+    <row r="338" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A338" s="1">
         <v>42005</v>
       </c>
@@ -3552,7 +3606,7 @@
         <v>166.29300000000001</v>
       </c>
     </row>
-    <row r="339" spans="1:2">
+    <row r="339" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A339" s="1">
         <v>42036</v>
       </c>
@@ -3560,7 +3614,7 @@
         <v>166.68199999999999</v>
       </c>
     </row>
-    <row r="340" spans="1:2">
+    <row r="340" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A340" s="1">
         <v>42064</v>
       </c>
@@ -3568,7 +3622,7 @@
         <v>168.136</v>
       </c>
     </row>
-    <row r="341" spans="1:2">
+    <row r="341" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A341" s="1">
         <v>42095</v>
       </c>
@@ -3576,7 +3630,7 @@
         <v>170.00599999999901</v>
       </c>
     </row>
-    <row r="342" spans="1:2">
+    <row r="342" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A342" s="1">
         <v>42125</v>
       </c>
@@ -3584,7 +3638,7 @@
         <v>171.88200000000001</v>
       </c>
     </row>
-    <row r="343" spans="1:2">
+    <row r="343" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A343" s="1">
         <v>42156</v>
       </c>
@@ -3592,7 +3646,7 @@
         <v>173.483</v>
       </c>
     </row>
-    <row r="344" spans="1:2">
+    <row r="344" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A344" s="1">
         <v>42186</v>
       </c>
@@ -3600,7 +3654,7 @@
         <v>174.53</v>
       </c>
     </row>
-    <row r="345" spans="1:2">
+    <row r="345" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A345" s="1">
         <v>42217</v>
       </c>
@@ -3608,7 +3662,7 @@
         <v>174.97799999999901</v>
       </c>
     </row>
-    <row r="346" spans="1:2">
+    <row r="346" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A346" s="1">
         <v>42248</v>
       </c>
@@ -3616,7 +3670,7 @@
         <v>175.09399999999999</v>
       </c>
     </row>
-    <row r="347" spans="1:2">
+    <row r="347" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A347" s="1">
         <v>42278</v>
       </c>
@@ -3624,7 +3678,7 @@
         <v>175.107</v>
       </c>
     </row>
-    <row r="348" spans="1:2">
+    <row r="348" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A348" s="1">
         <v>42309</v>
       </c>
@@ -3632,7 +3686,7 @@
         <v>175.209</v>
       </c>
     </row>
-    <row r="349" spans="1:2">
+    <row r="349" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A349" s="1">
         <v>42339</v>
       </c>
@@ -3640,7 +3694,7 @@
         <v>175.185</v>
       </c>
     </row>
-    <row r="350" spans="1:2">
+    <row r="350" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A350" s="1">
         <v>42370</v>
       </c>
@@ -3648,7 +3702,7 @@
         <v>175.09599999999901</v>
       </c>
     </row>
-    <row r="351" spans="1:2">
+    <row r="351" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A351" s="1">
         <v>42401</v>
       </c>
@@ -3656,7 +3710,7 @@
         <v>175.33099999999999</v>
       </c>
     </row>
-    <row r="352" spans="1:2">
+    <row r="352" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A352" s="1">
         <v>42430</v>
       </c>
@@ -3664,7 +3718,7 @@
         <v>176.64599999999999</v>
       </c>
     </row>
-    <row r="353" spans="1:2">
+    <row r="353" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A353" s="1">
         <v>42461</v>
       </c>
@@ -3672,7 +3726,7 @@
         <v>178.53700000000001</v>
       </c>
     </row>
-    <row r="354" spans="1:2">
+    <row r="354" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A354" s="1">
         <v>42491</v>
       </c>
@@ -3680,7 +3734,7 @@
         <v>180.392</v>
       </c>
     </row>
-    <row r="355" spans="1:2">
+    <row r="355" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A355" s="1">
         <v>42522</v>
       </c>
@@ -3688,7 +3742,7 @@
         <v>181.98099999999999</v>
       </c>
     </row>
-    <row r="356" spans="1:2">
+    <row r="356" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A356" s="1">
         <v>42552</v>
       </c>
@@ -3696,7 +3750,7 @@
         <v>183.102</v>
       </c>
     </row>
-    <row r="357" spans="1:2">
+    <row r="357" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A357" s="1">
         <v>42583</v>
       </c>
@@ -3704,7 +3758,7 @@
         <v>183.75299999999999</v>
       </c>
     </row>
-    <row r="358" spans="1:2">
+    <row r="358" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A358" s="1">
         <v>42614</v>
       </c>
@@ -3712,7 +3766,7 @@
         <v>184.05199999999999</v>
       </c>
     </row>
-    <row r="359" spans="1:2">
+    <row r="359" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A359" s="1">
         <v>42644</v>
       </c>
@@ -3720,7 +3774,7 @@
         <v>184.13399999999999</v>
       </c>
     </row>
-    <row r="360" spans="1:2">
+    <row r="360" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A360" s="1">
         <v>42675</v>
       </c>
@@ -3728,7 +3782,7 @@
         <v>184.35499999999999</v>
       </c>
     </row>
-    <row r="361" spans="1:2">
+    <row r="361" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A361" s="1">
         <v>42705</v>
       </c>
@@ -3736,7 +3790,7 @@
         <v>184.53200000000001</v>
       </c>
     </row>
-    <row r="362" spans="1:2">
+    <row r="362" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A362" s="1">
         <v>42736</v>
       </c>
@@ -3744,7 +3798,7 @@
         <v>184.78200000000001</v>
       </c>
     </row>
-    <row r="363" spans="1:2">
+    <row r="363" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A363" s="1">
         <v>42767</v>
       </c>
@@ -3752,7 +3806,7 @@
         <v>185.14699999999999</v>
       </c>
     </row>
-    <row r="364" spans="1:2">
+    <row r="364" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A364" s="1">
         <v>42795</v>
       </c>
@@ -3760,7 +3814,7 @@
         <v>186.654</v>
       </c>
     </row>
-    <row r="365" spans="1:2">
+    <row r="365" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A365" s="1">
         <v>42826</v>
       </c>
@@ -3768,7 +3822,7 @@
         <v>188.667</v>
       </c>
     </row>
-    <row r="366" spans="1:2">
+    <row r="366" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A366" s="1">
         <v>42856</v>
       </c>
@@ -3776,7 +3830,7 @@
         <v>190.67400000000001</v>
       </c>
     </row>
-    <row r="367" spans="1:2">
+    <row r="367" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A367" s="1">
         <v>42887</v>
       </c>
@@ -3784,7 +3838,7 @@
         <v>192.42099999999999</v>
       </c>
     </row>
-    <row r="368" spans="1:2">
+    <row r="368" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A368" s="1">
         <v>42917</v>
       </c>
@@ -3792,7 +3846,7 @@
         <v>193.684</v>
       </c>
     </row>
-    <row r="369" spans="1:2">
+    <row r="369" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A369" s="1">
         <v>42948</v>
       </c>
@@ -3800,7 +3854,7 @@
         <v>194.53200000000001</v>
       </c>
     </row>
-    <row r="370" spans="1:2">
+    <row r="370" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A370" s="1">
         <v>42979</v>
       </c>
@@ -3808,7 +3862,7 @@
         <v>195.00399999999999</v>
       </c>
     </row>
-    <row r="371" spans="1:2">
+    <row r="371" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A371" s="1">
         <v>43009</v>
       </c>
@@ -3816,7 +3870,7 @@
         <v>195.26900000000001</v>
       </c>
     </row>
-    <row r="372" spans="1:2">
+    <row r="372" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A372" s="1">
         <v>43040</v>
       </c>
@@ -3824,7 +3878,7 @@
         <v>195.63</v>
       </c>
     </row>
-    <row r="373" spans="1:2">
+    <row r="373" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A373" s="1">
         <v>43070</v>
       </c>
@@ -3832,7 +3886,7 @@
         <v>196.03799999999899</v>
       </c>
     </row>
-    <row r="374" spans="1:2">
+    <row r="374" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A374" s="1">
         <v>43101</v>
       </c>
@@ -3840,7 +3894,7 @@
         <v>196.322</v>
       </c>
     </row>
-    <row r="375" spans="1:2">
+    <row r="375" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A375" s="1">
         <v>43132</v>
       </c>
@@ -3848,7 +3902,7 @@
         <v>197.12299999999999</v>
       </c>
     </row>
-    <row r="376" spans="1:2">
+    <row r="376" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A376" s="1">
         <v>43160</v>
       </c>
@@ -3856,7 +3910,7 @@
         <v>198.798</v>
       </c>
     </row>
-    <row r="377" spans="1:2">
+    <row r="377" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A377" s="1">
         <v>43191</v>
       </c>
@@ -3864,7 +3918,7 @@
         <v>200.83599999999899</v>
       </c>
     </row>
-    <row r="378" spans="1:2">
+    <row r="378" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A378" s="1">
         <v>43221</v>
       </c>
@@ -3872,7 +3926,7 @@
         <v>202.69799999999901</v>
       </c>
     </row>
-    <row r="379" spans="1:2">
+    <row r="379" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A379" s="1">
         <v>43252</v>
       </c>
@@ -3880,7 +3934,7 @@
         <v>204.30599999999899</v>
       </c>
     </row>
-    <row r="380" spans="1:2">
+    <row r="380" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A380" s="1">
         <v>43282</v>
       </c>
@@ -3888,7 +3942,7 @@
         <v>205.22900000000001</v>
       </c>
     </row>
-    <row r="381" spans="1:2">
+    <row r="381" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A381" s="1">
         <v>43313</v>
       </c>
@@ -3896,7 +3950,7 @@
         <v>205.59799999999899</v>
       </c>
     </row>
-    <row r="382" spans="1:2">
+    <row r="382" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A382" s="1">
         <v>43344</v>
       </c>
@@ -3904,7 +3958,7 @@
         <v>205.637</v>
       </c>
     </row>
-    <row r="383" spans="1:2">
+    <row r="383" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A383" s="1">
         <v>43374</v>
       </c>
@@ -3912,7 +3966,7 @@
         <v>205.625</v>
       </c>
     </row>
-    <row r="384" spans="1:2">
+    <row r="384" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A384" s="1">
         <v>43405</v>
       </c>
@@ -3920,7 +3974,7 @@
         <v>205.37299999999999</v>
       </c>
     </row>
-    <row r="385" spans="1:2">
+    <row r="385" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A385" s="1">
         <v>43435</v>
       </c>
@@ -3928,7 +3982,7 @@
         <v>204.96199999999999</v>
       </c>
     </row>
-    <row r="386" spans="1:2">
+    <row r="386" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A386" s="1">
         <v>43466</v>
       </c>
@@ -3936,7 +3990,7 @@
         <v>204.47099999999901</v>
       </c>
     </row>
-    <row r="387" spans="1:2">
+    <row r="387" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A387" s="1">
         <v>43497</v>
       </c>
@@ -3944,7 +3998,7 @@
         <v>204.72</v>
       </c>
     </row>
-    <row r="388" spans="1:2">
+    <row r="388" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A388" s="1">
         <v>43525</v>
       </c>
@@ -3952,7 +4006,7 @@
         <v>205.989</v>
       </c>
     </row>
-    <row r="389" spans="1:2">
+    <row r="389" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A389" s="1">
         <v>43556</v>
       </c>
@@ -3960,7 +4014,7 @@
         <v>207.84899999999999</v>
       </c>
     </row>
-    <row r="390" spans="1:2">
+    <row r="390" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A390" s="1">
         <v>43586</v>
       </c>
@@ -3968,7 +4022,7 @@
         <v>209.49099999999899</v>
       </c>
     </row>
-    <row r="391" spans="1:2">
+    <row r="391" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A391" s="1">
         <v>43617</v>
       </c>
